--- a/biology/Zoologie/Elachistodon_westermanni/Elachistodon_westermanni.xlsx
+++ b/biology/Zoologie/Elachistodon_westermanni/Elachistodon_westermanni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elachistodon westermanni, unique représentant du genre Elachistodon est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elachistodon westermanni, unique représentant du genre Elachistodon est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Bangladesh, en Inde et au Népal[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Bangladesh, en Inde et au Népal.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elachistodon westermanni est un serpent nocturne. Sa coloration varie du brun au noir avec une ligne claire le long du corps. Sa tête est brune avec des marques noires. Son ventre est blanc avec des points sombres.
-Cette espèce présente une adaptation morphologique, une excroissance de la colonne vertébrale au niveau de l'œsophage qui l'aide à casser la coquille des œufs qu'il consomme[2].
+Cette espèce présente une adaptation morphologique, une excroissance de la colonne vertébrale au niveau de l'œsophage qui l'aide à casser la coquille des œufs qu'il consomme.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Geraldus Frederick Westermann (1807–1890).
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Reinhardt, 1863 : Om en ny Slaegt af Slangefamilien Rachiodontidae. Oversigt over det Kongelige Danske Videnskabernes Selskabs, vol. 1863, p. 198-210 (texte intégral).</t>
         </is>
